--- a/build2.7_260119/results/2.7b_idc4_pattern_results(weight=0.25).xlsx
+++ b/build2.7_260119/results/2.7b_idc4_pattern_results(weight=0.25).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0a89b0b6314c61c/MAFF_2025/workspace simul/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{7F0905EC-A900-4E09-94A4-6ECA26E0E318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07EAF261-6A99-4F6F-AB40-83A2C2F9E252}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{FA723F04-1F59-4F42-A56B-45EC0982F37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFE5F17C-0E8E-41E7-B215-768732DD0502}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="7" xr2:uid="{1FD596B8-8707-4568-82EA-DC8E23266424}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="6" xr2:uid="{ECA9FC49-C5E9-4EC7-A003-CC0B4614B78A}"/>
   </bookViews>
   <sheets>
     <sheet name="pcroprep" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="pradar" sheetId="5" r:id="rId5"/>
     <sheet name="plandrep" sheetId="6" r:id="rId6"/>
     <sheet name="plaborrep" sheetId="7" r:id="rId7"/>
-    <sheet name="pfertrep" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="87">
   <si>
     <t>potato</t>
   </si>
@@ -304,15 +303,6 @@
   </si>
   <si>
     <t>layinghens</t>
-  </si>
-  <si>
-    <t>nitrogen</t>
-  </si>
-  <si>
-    <t>phosphate</t>
-  </si>
-  <si>
-    <t>kalium</t>
   </si>
 </sst>
 </file>
@@ -698,7 +688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8767D5DA-D0EB-42BE-8258-C42EE48A548D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E882D2-4EA7-4BF6-9AA9-5B553B42F68C}">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1523,7 +1513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A708D693-0C14-47AB-BBB6-F564DDE94737}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00664650-FD48-475F-8F9B-4B89639D8517}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1846,7 +1836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD749F1B-77D1-4085-8B95-C6965D8F43FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E01DA52-4CD2-4689-B7A3-509DB162329E}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2141,7 +2131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACF781E-4682-403F-9657-E6ECEB9EB7A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6164A9-381B-4C15-9016-7422302107B3}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2356,7 +2346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A0211C-E860-471B-A88B-BE98D7431ECF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2801FFDF-2BEE-4DC0-9D73-F4AF7B818F4A}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2786,7 +2776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F65192-C88A-4B08-B34E-615412284C48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FE23B9-5D80-4392-8A62-DB288E55C527}">
   <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4721,10 +4711,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032F5304-9844-4DF5-B067-936946AB4FCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A85309-C212-4E43-95BA-2B3F76F5A502}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -5022,919 +5012,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71361CE9-4B26-4FE7-B036-807301C17ECF}">
-  <dimension ref="A1:BX5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:76" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="BU2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BV2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BW2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BX2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>177981.96800000346</v>
-      </c>
-      <c r="D3">
-        <v>55611.006863999661</v>
-      </c>
-      <c r="M3">
-        <v>24336.413894700552</v>
-      </c>
-      <c r="Q3">
-        <v>21969.522884197308</v>
-      </c>
-      <c r="S3">
-        <v>198156.7472024025</v>
-      </c>
-      <c r="T3">
-        <v>7891.5999999999603</v>
-      </c>
-      <c r="U3">
-        <v>5019.300000000052</v>
-      </c>
-      <c r="V3">
-        <v>8148.327999999965</v>
-      </c>
-      <c r="W3">
-        <v>5103.99999999996</v>
-      </c>
-      <c r="X3">
-        <v>8863.9999999999382</v>
-      </c>
-      <c r="Z3">
-        <v>513082.88684530341</v>
-      </c>
-      <c r="AA3">
-        <v>210768.1200000041</v>
-      </c>
-      <c r="AC3">
-        <v>66409.260623999595</v>
-      </c>
-      <c r="AL3">
-        <v>51347.158986620947</v>
-      </c>
-      <c r="AP3">
-        <v>105453.70984414709</v>
-      </c>
-      <c r="AR3">
-        <v>118894.04832144151</v>
-      </c>
-      <c r="AS3">
-        <v>4850.7999999999756</v>
-      </c>
-      <c r="AT3">
-        <v>1719.9000000000178</v>
-      </c>
-      <c r="AU3">
-        <v>6916.6039999999703</v>
-      </c>
-      <c r="AV3">
-        <v>2087.9999999999836</v>
-      </c>
-      <c r="AW3">
-        <v>13849.999999999902</v>
-      </c>
-      <c r="AY3">
-        <v>582297.60177621304</v>
-      </c>
-      <c r="AZ3">
-        <v>224819.32800000435</v>
-      </c>
-      <c r="BB3">
-        <v>50751.79267199969</v>
-      </c>
-      <c r="BK3">
-        <v>33161.706845526031</v>
-      </c>
-      <c r="BO3">
-        <v>45037.521912604483</v>
-      </c>
-      <c r="BQ3">
-        <v>189509.90732447949</v>
-      </c>
-      <c r="BR3">
-        <v>5647.1999999999716</v>
-      </c>
-      <c r="BS3">
-        <v>2492.1000000000258</v>
-      </c>
-      <c r="BT3">
-        <v>7864.0839999999662</v>
-      </c>
-      <c r="BU3">
-        <v>1391.9999999999891</v>
-      </c>
-      <c r="BV3">
-        <v>8863.9999999999382</v>
-      </c>
-      <c r="BX3">
-        <v>569539.64075461368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>177981.96799999959</v>
-      </c>
-      <c r="C4">
-        <v>73468.117008988891</v>
-      </c>
-      <c r="D4">
-        <v>55611.006863999639</v>
-      </c>
-      <c r="O4">
-        <v>28882.575319860509</v>
-      </c>
-      <c r="Q4">
-        <v>417.35999999999876</v>
-      </c>
-      <c r="S4">
-        <v>158303.24895000103</v>
-      </c>
-      <c r="T4">
-        <v>7891.5999999999622</v>
-      </c>
-      <c r="U4">
-        <v>5019.2999999999847</v>
-      </c>
-      <c r="V4">
-        <v>8148.3280000000013</v>
-      </c>
-      <c r="W4">
-        <v>5104.0000000000009</v>
-      </c>
-      <c r="X4">
-        <v>8864.0000000000018</v>
-      </c>
-      <c r="Z4">
-        <v>529691.50414284959</v>
-      </c>
-      <c r="AA4">
-        <v>210768.1199999995</v>
-      </c>
-      <c r="AB4">
-        <v>87733.770797142075</v>
-      </c>
-      <c r="AC4">
-        <v>66409.260623999566</v>
-      </c>
-      <c r="AN4">
-        <v>78152.850865504908</v>
-      </c>
-      <c r="AP4">
-        <v>2003.3279999999941</v>
-      </c>
-      <c r="AR4">
-        <v>94981.949370000628</v>
-      </c>
-      <c r="AS4">
-        <v>4850.7999999999765</v>
-      </c>
-      <c r="AT4">
-        <v>1719.8999999999949</v>
-      </c>
-      <c r="AU4">
-        <v>6916.6040000000012</v>
-      </c>
-      <c r="AV4">
-        <v>2088.0000000000005</v>
-      </c>
-      <c r="AW4">
-        <v>13850.000000000004</v>
-      </c>
-      <c r="AY4">
-        <v>569474.58365664666</v>
-      </c>
-      <c r="AZ4">
-        <v>224819.32799999946</v>
-      </c>
-      <c r="BA4">
-        <v>67048.572804319963</v>
-      </c>
-      <c r="BB4">
-        <v>50751.792671999669</v>
-      </c>
-      <c r="BM4">
-        <v>73905.413318466599</v>
-      </c>
-      <c r="BO4">
-        <v>855.58799999999746</v>
-      </c>
-      <c r="BQ4">
-        <v>151395.47081400099</v>
-      </c>
-      <c r="BR4">
-        <v>5647.1999999999725</v>
-      </c>
-      <c r="BS4">
-        <v>2492.0999999999926</v>
-      </c>
-      <c r="BT4">
-        <v>7864.0840000000017</v>
-      </c>
-      <c r="BU4">
-        <v>1392.0000000000002</v>
-      </c>
-      <c r="BV4">
-        <v>8864.0000000000018</v>
-      </c>
-      <c r="BX4">
-        <v>595035.54960878671</v>
-      </c>
-    </row>
-    <row r="5" spans="1:76" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5">
-        <v>118788</v>
-      </c>
-      <c r="C5">
-        <v>10238.200000000001</v>
-      </c>
-      <c r="D5">
-        <v>13173.7</v>
-      </c>
-      <c r="E5">
-        <v>406.71999999999997</v>
-      </c>
-      <c r="F5">
-        <v>4296.8</v>
-      </c>
-      <c r="G5">
-        <v>622.22</v>
-      </c>
-      <c r="H5">
-        <v>15.5</v>
-      </c>
-      <c r="I5">
-        <v>3.3090899999999999</v>
-      </c>
-      <c r="J5">
-        <v>1644.49325</v>
-      </c>
-      <c r="K5">
-        <v>1582.6999999999998</v>
-      </c>
-      <c r="L5">
-        <v>1582.6999999999998</v>
-      </c>
-      <c r="M5">
-        <v>6497.4000000000005</v>
-      </c>
-      <c r="N5">
-        <v>6497.4000000000005</v>
-      </c>
-      <c r="O5">
-        <v>1050.5999999999999</v>
-      </c>
-      <c r="P5">
-        <v>4103.8</v>
-      </c>
-      <c r="Q5">
-        <v>1411.6</v>
-      </c>
-      <c r="R5">
-        <v>27177.353999999999</v>
-      </c>
-      <c r="S5">
-        <v>70529.524999999994</v>
-      </c>
-      <c r="T5">
-        <v>7891.6</v>
-      </c>
-      <c r="U5">
-        <v>5019.3</v>
-      </c>
-      <c r="V5">
-        <v>8148.3280000000004</v>
-      </c>
-      <c r="W5">
-        <v>5104</v>
-      </c>
-      <c r="X5">
-        <v>8864</v>
-      </c>
-      <c r="Y5">
-        <v>87</v>
-      </c>
-      <c r="Z5">
-        <v>304736.24933999992</v>
-      </c>
-      <c r="AA5">
-        <v>140670</v>
-      </c>
-      <c r="AB5">
-        <v>12226.2</v>
-      </c>
-      <c r="AC5">
-        <v>15731.7</v>
-      </c>
-      <c r="AD5">
-        <v>491.04</v>
-      </c>
-      <c r="AE5">
-        <v>5187.5999999999995</v>
-      </c>
-      <c r="AF5">
-        <v>475.47</v>
-      </c>
-      <c r="AG5">
-        <v>17.7</v>
-      </c>
-      <c r="AH5">
-        <v>2.2060599999999999</v>
-      </c>
-      <c r="AI5">
-        <v>5459.7175900000002</v>
-      </c>
-      <c r="AJ5">
-        <v>3100.7999999999997</v>
-      </c>
-      <c r="AK5">
-        <v>3100.7999999999997</v>
-      </c>
-      <c r="AL5">
-        <v>13708.800000000001</v>
-      </c>
-      <c r="AM5">
-        <v>13708.800000000001</v>
-      </c>
-      <c r="AN5">
-        <v>2842.7999999999997</v>
-      </c>
-      <c r="AO5">
-        <v>11104.4</v>
-      </c>
-      <c r="AP5">
-        <v>6775.68</v>
-      </c>
-      <c r="AQ5">
-        <v>29906.004000000001</v>
-      </c>
-      <c r="AR5">
-        <v>42317.715000000004</v>
-      </c>
-      <c r="AS5">
-        <v>4850.8</v>
-      </c>
-      <c r="AT5">
-        <v>1719.9</v>
-      </c>
-      <c r="AU5">
-        <v>6916.6040000000003</v>
-      </c>
-      <c r="AV5">
-        <v>2088</v>
-      </c>
-      <c r="AW5">
-        <v>13850</v>
-      </c>
-      <c r="AX5">
-        <v>130.5</v>
-      </c>
-      <c r="AY5">
-        <v>336383.23664999998</v>
-      </c>
-      <c r="AZ5">
-        <v>150048</v>
-      </c>
-      <c r="BA5">
-        <v>9343.6</v>
-      </c>
-      <c r="BB5">
-        <v>12022.6</v>
-      </c>
-      <c r="BC5">
-        <v>491.04</v>
-      </c>
-      <c r="BD5">
-        <v>5187.5999999999995</v>
-      </c>
-      <c r="BE5">
-        <v>692.66</v>
-      </c>
-      <c r="BF5">
-        <v>11.9</v>
-      </c>
-      <c r="BG5">
-        <v>2.5989200000000001</v>
-      </c>
-      <c r="BH5">
-        <v>4604.5811000000003</v>
-      </c>
-      <c r="BI5">
-        <v>4748.0999999999995</v>
-      </c>
-      <c r="BJ5">
-        <v>4748.0999999999995</v>
-      </c>
-      <c r="BK5">
-        <v>8853.6</v>
-      </c>
-      <c r="BL5">
-        <v>8853.6</v>
-      </c>
-      <c r="BM5">
-        <v>2688.2999999999997</v>
-      </c>
-      <c r="BN5">
-        <v>10500.9</v>
-      </c>
-      <c r="BO5">
-        <v>2893.7799999999997</v>
-      </c>
-      <c r="BP5">
-        <v>27941.376</v>
-      </c>
-      <c r="BQ5">
-        <v>67451.873000000007</v>
-      </c>
-      <c r="BR5">
-        <v>5647.2000000000007</v>
-      </c>
-      <c r="BS5">
-        <v>2492.1</v>
-      </c>
-      <c r="BT5">
-        <v>7864.0840000000007</v>
-      </c>
-      <c r="BU5">
-        <v>1392</v>
-      </c>
-      <c r="BV5">
-        <v>8864</v>
-      </c>
-      <c r="BW5">
-        <v>130.5</v>
-      </c>
-      <c r="BX5">
-        <v>347474.09301999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>